--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-961919.5061111967</v>
+        <v>-963807.0876275994</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14501910.35680567</v>
+        <v>14501910.35680568</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>310.2076895021008</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>78.66759020971898</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.2436335541528</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>90.05347083351255</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>155.7579830058206</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>379.140431975749</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>86.85904583823142</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>88.85876175969196</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>75.30729779173569</v>
       </c>
       <c r="T8" t="n">
-        <v>142.5451450507579</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>274.487665874544</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>25.2529242564392</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>40.71096332175345</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>183.1270525074849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>76.27978370493952</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>113.9813206391592</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>31.53167077398962</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>36.85362778527706</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>77.7414640267987</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>213.2108874994329</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>122.1703266469729</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>146.2787299119462</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002173</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>105.2882957363104</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>21.84773706512106</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897916</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571496</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523581</v>
+        <v>0.5399953924680312</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.934386695271</v>
@@ -3013,7 +3013,7 @@
         <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235378</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692875</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898724</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857176</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692858</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329065</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.361678333737</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789553</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1546.94416071721</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="C2" t="n">
-        <v>1177.981643776798</v>
+        <v>1383.317493518679</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1025.051794911929</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1025.051794911929</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>614.0658901223214</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018223</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>1752.280010459091</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,7 +4404,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4428,22 +4428,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>394.4025473335336</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>394.4025473335336</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>394.4025473335336</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511405</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>513.840561024597</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>513.840561024597</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="X4" t="n">
-        <v>513.840561024597</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.840561024597</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>1533.27522618254</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>2153.726218239669</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>1763.586886263858</v>
+        <v>1533.27522618254</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>640.3925742688267</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>385.7080860629399</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>385.7080860629399</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X7" t="n">
-        <v>385.7080860629399</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.7080860629399</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1579.049931616194</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2566.052423981306</v>
       </c>
       <c r="T8" t="n">
-        <v>2321.95791886212</v>
+        <v>2347.417756953369</v>
       </c>
       <c r="U8" t="n">
-        <v>2321.95791886212</v>
+        <v>2093.65597159146</v>
       </c>
       <c r="V8" t="n">
-        <v>2321.95791886212</v>
+        <v>1762.593084247889</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.189263592006</v>
+        <v>1409.824428977775</v>
       </c>
       <c r="X8" t="n">
-        <v>1969.189263592006</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y8" t="n">
-        <v>1579.049931616194</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9725150767609</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="W10" t="n">
-        <v>702.6209799070007</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X10" t="n">
-        <v>702.6209799070007</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.6209799070007</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,16 +5036,16 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5063,13 +5063,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.1367719529252</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529252</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405894</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,7 +5215,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5233,16 +5233,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1168.665446597972</v>
       </c>
       <c r="W13" t="n">
-        <v>955.1031435655738</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="X13" t="n">
-        <v>727.1135926675564</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y13" t="n">
-        <v>542.1367719529252</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,67 +5261,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.3840174432676</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C16" t="n">
-        <v>324.3840174432676</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D16" t="n">
-        <v>174.2673780309318</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>174.2673780309318</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>174.2673780309319</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>174.2673780309319</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5467,19 +5467,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1094.654984661199</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>805.237814624238</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>805.237814624238</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735073</v>
+        <v>584.4452354807079</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5492,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.5496456007323</v>
+        <v>444.8933943850828</v>
       </c>
       <c r="C19" t="n">
-        <v>710.6134626728254</v>
+        <v>275.9572114571756</v>
       </c>
       <c r="D19" t="n">
-        <v>710.6134626728254</v>
+        <v>275.9572114571756</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5680,13 +5680,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1350.615280467933</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>1350.615280467933</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W19" t="n">
-        <v>1061.198110430972</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X19" t="n">
-        <v>1061.198110430972</v>
+        <v>665.685973528613</v>
       </c>
       <c r="Y19" t="n">
-        <v>1061.198110430972</v>
+        <v>444.8933943850828</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5756,13 +5756,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5795,7 +5795,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>359.169691290395</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C22" t="n">
-        <v>359.169691290395</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D22" t="n">
-        <v>359.169691290395</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E22" t="n">
-        <v>359.169691290395</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>359.169691290395</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1420.389539217702</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1420.389539217702</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1131.26090043126</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>876.5764122253729</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W22" t="n">
-        <v>587.1592421884123</v>
+        <v>809.2953582963254</v>
       </c>
       <c r="X22" t="n">
-        <v>359.169691290395</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="Y22" t="n">
-        <v>359.169691290395</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1151.239967633105</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>862.1113288466634</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407765</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028581</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6212,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6251,10 +6251,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6309,13 +6309,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
         <v>2331.418122136705</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028587</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>968.8590313878996</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>714.1745431820127</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>714.1745431820127</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>486.1849922839954</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,10 +6449,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6464,16 +6464,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542169</v>
+        <v>638.4603630227166</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076807</v>
+        <v>525.2850453761804</v>
       </c>
       <c r="D31" t="n">
-        <v>326.3571123076807</v>
+        <v>430.9292712452154</v>
       </c>
       <c r="E31" t="n">
-        <v>326.3571123076807</v>
+        <v>338.777042944193</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297806</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309719</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1935.580613164692</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1935.580613164692</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1767.556063235568</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1534.188289730497</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1335.264666805981</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818921</v>
+        <v>1101.608362050391</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652454</v>
+        <v>929.3796764337449</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503086</v>
+        <v>764.3479625715855</v>
       </c>
     </row>
     <row r="32">
@@ -6777,25 +6777,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,25 +6956,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,28 +7117,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="38">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7570,10 +7570,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,25 +9246,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9957,16 +9957,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675369</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>211.4266800020746</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>35.45760084460989</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>72.63404466259661</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23707,16 +23707,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>138.1563226846688</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>114.9022918725796</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,10 +23944,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>249.3837246133003</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>120.1793459568046</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>12.49876788960424</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>45.07649445165497</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,16 +24412,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>75.26883114644303</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>180.949056662267</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965538</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180122</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.37005432925321</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.215988835715</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.22110038276774</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-2.415845301584341e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1219319.02315233</v>
+        <v>1219319.023152329</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1219319.023152329</v>
+        <v>1219319.02315233</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1219319.02315233</v>
+        <v>1219319.023152329</v>
       </c>
     </row>
     <row r="10">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="C2" t="n">
         <v>164208.3539728566</v>
-      </c>
-      <c r="C2" t="n">
-        <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728567</v>
@@ -26323,22 +26323,22 @@
         <v>156411.6238950835</v>
       </c>
       <c r="F2" t="n">
-        <v>156411.6238950834</v>
+        <v>156411.6238950836</v>
       </c>
       <c r="G2" t="n">
         <v>156411.6238950835</v>
       </c>
       <c r="H2" t="n">
+        <v>156411.6238950834</v>
+      </c>
+      <c r="I2" t="n">
+        <v>156411.6238950834</v>
+      </c>
+      <c r="J2" t="n">
         <v>156411.6238950835</v>
       </c>
-      <c r="I2" t="n">
-        <v>156411.6238950835</v>
-      </c>
-      <c r="J2" t="n">
-        <v>156411.6238950836</v>
-      </c>
       <c r="K2" t="n">
-        <v>162728.8549381078</v>
+        <v>162728.8549381079</v>
       </c>
       <c r="L2" t="n">
         <v>164208.3539728566</v>
@@ -26347,10 +26347,10 @@
         <v>164208.3539728566</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
         <v>164208.3539728567</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086693</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26421,22 +26421,22 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007473</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007443</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007505</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007451</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007483</v>
@@ -26445,19 +26445,19 @@
         <v>26081.354170204</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26479,10 +26479,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26500,13 +26500,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-656535.6520210181</v>
+        <v>-656535.652021018</v>
       </c>
       <c r="C6" t="n">
-        <v>-66567.77280647357</v>
+        <v>-66567.77280647366</v>
       </c>
       <c r="D6" t="n">
-        <v>-66567.7728064736</v>
+        <v>-66567.77280647366</v>
       </c>
       <c r="E6" t="n">
-        <v>-468652.4701865368</v>
+        <v>-468749.929312509</v>
       </c>
       <c r="F6" t="n">
-        <v>56507.56629035933</v>
+        <v>56410.10716438727</v>
       </c>
       <c r="G6" t="n">
-        <v>56507.56629035942</v>
+        <v>56410.10716438721</v>
       </c>
       <c r="H6" t="n">
-        <v>56507.56629035933</v>
+        <v>56410.10716438708</v>
       </c>
       <c r="I6" t="n">
-        <v>56507.56629035939</v>
+        <v>56410.1071643872</v>
       </c>
       <c r="J6" t="n">
-        <v>-119915.6529022335</v>
+        <v>-120013.1120282056</v>
       </c>
       <c r="K6" t="n">
-        <v>-4143.313065164548</v>
+        <v>-4161.806803098848</v>
       </c>
       <c r="L6" t="n">
-        <v>25814.82245463638</v>
+        <v>25814.82245463633</v>
       </c>
       <c r="M6" t="n">
-        <v>-98643.28597833388</v>
+        <v>-98643.28597833394</v>
       </c>
       <c r="N6" t="n">
-        <v>36157.72925550344</v>
+        <v>36157.72925550338</v>
       </c>
       <c r="O6" t="n">
-        <v>36157.72925550348</v>
+        <v>36157.72925550338</v>
       </c>
       <c r="P6" t="n">
-        <v>-8004.87604734223</v>
+        <v>-8004.876047342244</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,10 +26747,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108366</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>44.47535211858218</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>335.116579811076</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.58834662778446</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>196.4695275030784</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>213.9731176726484</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>7.097506680304605</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>199.4228284037463</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>136.8508936293452</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>99.10841501723584</v>
       </c>
       <c r="T8" t="n">
-        <v>73.90317530689987</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>11.79420836743373</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>261.2700740801518</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.1318901296406</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36677,16 +36677,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412252</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
